--- a/wikiimages/Puzzle-10.xlsx
+++ b/wikiimages/Puzzle-10.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>white_king</t>
   </si>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42373.486734143517" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -230,16 +230,16 @@
     </cacheField>
     <cacheField name="Value" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
-        <s v="black_rook"/>
         <m/>
-        <s v="black_queen"/>
+        <s v="black_knight"/>
+        <s v="white_rook"/>
         <s v="black_king"/>
         <s v="black_pawn"/>
+        <s v="white_knight"/>
         <s v="black_bishop"/>
-        <s v="white_knight"/>
-        <s v="white_queen"/>
         <s v="white_pawn"/>
-        <s v="white_rook"/>
+        <s v="black_rook"/>
+        <s v="white_bishop"/>
         <s v="white_king"/>
       </sharedItems>
     </cacheField>
@@ -267,318 +267,318 @@
   <r>
     <x v="0"/>
     <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="5"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="6"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="7"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
     <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="7"/>
     <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="10"/>
   </r>
   <r>
     <x v="7"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,23 +954,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -981,97 +981,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
         <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1082,12 +1067,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
         <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,15 +1108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1147,12 +1132,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
         <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1171,15 +1159,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1190,12 +1175,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27">
         <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1206,42 +1194,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1260,23 +1248,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
         <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1322,15 +1310,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1349,12 +1334,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
       <c r="B45">
         <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1397,26 +1385,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1446,15 +1428,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
       <c r="B56">
         <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1495,31 +1474,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
       <c r="B63">
         <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1530,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -1572,7 +1554,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N14"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,12 +1575,12 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>0</v>
       </c>
@@ -1627,7 +1609,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1649,7 +1634,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
@@ -1671,7 +1659,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1689,7 +1680,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1711,7 +1705,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -1731,7 +1728,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -1749,7 +1749,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -1769,7 +1772,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1822,12 +1828,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>9</v>
       </c>

--- a/wikiimages/Puzzle-10.xlsx
+++ b/wikiimages/Puzzle-10.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,7 +18,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42373.486734143517" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42374.812446643518" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -232,13 +232,13 @@
       <sharedItems containsBlank="1" count="11">
         <m/>
         <s v="black_knight"/>
-        <s v="white_rook"/>
+        <s v="black_rook"/>
         <s v="black_king"/>
         <s v="black_pawn"/>
         <s v="white_knight"/>
         <s v="black_bishop"/>
         <s v="white_pawn"/>
-        <s v="black_rook"/>
+        <s v="white_rook"/>
         <s v="white_bishop"/>
         <s v="white_king"/>
       </sharedItems>
@@ -472,7 +472,7 @@
   <r>
     <x v="5"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="5"/>
@@ -537,7 +537,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <x v="8"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="7"/>
@@ -567,7 +567,7 @@
   <r>
     <x v="7"/>
     <x v="6"/>
-    <x v="2"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="7"/>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -637,8 +637,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
+    <tableColumn id="1" name="Y"/>
+    <tableColumn id="2" name="X"/>
     <tableColumn id="3" name="PIECE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -945,10 +945,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1621,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
